--- a/ruleLib/ruleLib.xlsx
+++ b/ruleLib/ruleLib.xlsx
@@ -1,61 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="rule整理" sheetId="1" r:id="rId1"/>
-    <sheet name="所有策略" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="所有策略" sheetId="2" r:id="rId1"/>
+    <sheet name="rule整理" sheetId="1" r:id="rId2"/>
+    <sheet name="a" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="120">
   <si>
     <t>rule类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>基本类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>附加类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>纯组合型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>策略列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>rule1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有策略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A连续涨停</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>B历史连续涨停</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>支撑位，下影快速收回最好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>长阴</t>
@@ -65,102 +61,98 @@
   </si>
   <si>
     <t>C挖坑1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D挖坑2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>E长下影5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F连续阳线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>有支撑位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>G阳包阴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>两天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>H平台整理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>多十字星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I穿多均线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>最好长下影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>J十字三星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>跳空低开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>K大阳突破均线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>L挖坑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>长阴_十字星_长阳</t>
   </si>
   <si>
     <t xml:space="preserve">M </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>分时K有窄脉冲下影，有支撑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>低上影下影十字星，第二天补回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>或上下影穿均线，或跳空涨停，或跳空突破均线，前期在均线下方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大幅跳空低开，后三天连续十字星或者长阳收回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>连续小阴线，后面十字星站稳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Q下影40长阳40</t>
@@ -185,7 +177,7 @@
   </si>
   <si>
     <t>穿任意3线，最好长阳长下影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>U拉升整理吸筹5线</t>
@@ -206,9 +198,6 @@
     <t>最好跳空没有回补</t>
   </si>
   <si>
-    <t>X低开长阳拉起</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y斜率排列 </t>
   </si>
   <si>
@@ -222,83 +211,353 @@
   </si>
   <si>
     <t>策略名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>使用描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>补充条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>其他策略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筛选基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>前面5连阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连续4阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>依次放量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>连续20天正负25波动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>最好是低位、小幅震动、长阳涨停</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>成交量和换手待分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>操作方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>高：5%，低：长阳开盘附近，跌破清仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID排序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续3阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续8连阴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I一阳穿五线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X低开长阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳空涨停</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不回补</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高送转筛选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高公积小市值次新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20天内阳线多，有跳空低开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三连阴，第三个无量十字星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红三兵穿五线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期无量，有涨停放量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨停，有下影或低开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I一阳穿五线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨停且有2%下影或低开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>X低开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长阳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7%</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S穿任意4线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价跌时无量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>量价红三兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价跌时无量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大涨的延五日线，第一个阴线调整后继续涨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨停有三必有四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续工作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>量、换手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不复权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>code范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小盘股选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读文件取股票</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="22"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -313,24 +572,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -404,7 +665,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -439,7 +699,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -615,337 +874,788 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="47.25" customWidth="1"/>
+    <col min="6" max="6" width="31.125" customWidth="1"/>
+    <col min="7" max="7" width="31.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1">
+      <c r="A6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1">
+      <c r="A10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1">
+      <c r="A12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1">
+      <c r="A18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1">
+      <c r="A19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1">
+      <c r="A20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1">
+      <c r="A25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1">
+      <c r="A31" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="1" customFormat="1">
+      <c r="A35" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1">
+      <c r="A36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="1" customFormat="1">
+      <c r="A39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="1" customFormat="1">
+      <c r="A40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="47.25" customWidth="1"/>
-    <col min="4" max="4" width="31.125" customWidth="1"/>
-    <col min="5" max="5" width="31.25" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
       <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="9" style="5"/>
+    <col min="4" max="4" width="20.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="60.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1">
+      <c r="A4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1">
+      <c r="A5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1">
+      <c r="A11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1">
+      <c r="A12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1">
+      <c r="A13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1">
+      <c r="A14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1">
+      <c r="A15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1">
+      <c r="A16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="3" customFormat="1">
+      <c r="A17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="3" customFormat="1">
+      <c r="A18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="3" customFormat="1">
+      <c r="A19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ruleLib/ruleLib.xlsx
+++ b/ruleLib/ruleLib.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="所有策略" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="126">
   <si>
     <t>rule类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -347,6 +347,150 @@
   </si>
   <si>
     <t>涨停且有2%下影或低开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S穿任意4线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价跌时无量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>量价红三兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大涨的延五日线，第一个阴线调整后继续涨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨停有三必有四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续工作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>量、换手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不复权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>code范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小盘股选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读文件取股票</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续三天量低于均值的20%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续三天量低于均值的20%，最好是十字星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价跌时无量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不回补</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -358,6 +502,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -368,6 +513,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>长阳</t>
@@ -377,6 +523,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -385,135 +532,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>rule3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S穿任意4线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>价跌时无量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>量价红三兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>价跌时无量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大涨的延五日线，第一个阴线调整后继续涨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>涨停有三必有四</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>后续工作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>量、换手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不复权</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>code范围</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大小盘股选择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>读文件取股票</t>
+    <t>跳空1%涨停</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,17 +560,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="22"/>
+      <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -572,26 +607,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -665,6 +737,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -699,6 +772,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -874,459 +948,549 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="4" max="4" width="23.875" customWidth="1"/>
-    <col min="5" max="5" width="47.25" customWidth="1"/>
-    <col min="6" max="6" width="31.125" customWidth="1"/>
-    <col min="7" max="7" width="31.25" customWidth="1"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="3" width="9" style="7"/>
+    <col min="4" max="4" width="23.875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="47.25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="31.25" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="8" customFormat="1">
+      <c r="A6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="8" customFormat="1">
+      <c r="A10" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="8" customFormat="1">
+      <c r="A12" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="8" customFormat="1">
+      <c r="A18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="8" customFormat="1">
+      <c r="A19" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="8" customFormat="1">
+      <c r="A20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="8" customFormat="1">
+      <c r="A25" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1">
-      <c r="A6" s="3" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="8" customFormat="1">
+      <c r="A31" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="8" customFormat="1">
+      <c r="A35" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="8" customFormat="1">
+      <c r="A36" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1">
-      <c r="A10" s="3" t="s">
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="8" customFormat="1">
+      <c r="A39" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1">
-      <c r="A12" s="3" t="s">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="8" customFormat="1">
+      <c r="A40" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="1" customFormat="1">
-      <c r="A18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="1" customFormat="1">
-      <c r="A19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="1" customFormat="1">
-      <c r="A20" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="D24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="1" customFormat="1">
-      <c r="A25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B41" s="12"/>
+      <c r="C41" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="1" customFormat="1">
-      <c r="A31" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="1" customFormat="1">
-      <c r="A35" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="1" customFormat="1">
-      <c r="A36" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="1" customFormat="1">
-      <c r="A39" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="1" customFormat="1">
-      <c r="A40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>103</v>
+      <c r="D41" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1337,11 +1501,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1383,45 +1547,45 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1432,33 +1596,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="20.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="60.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="20.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
     <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E1" t="s">
@@ -1471,186 +1635,226 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1">
-      <c r="A4" s="3" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1">
+      <c r="A11" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1">
-      <c r="A5" s="3" t="s">
+      <c r="B11" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1">
+      <c r="A12" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1">
-      <c r="A11" s="3" t="s">
+      <c r="B12" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1">
+      <c r="A13" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="3" customFormat="1">
-      <c r="A12" s="3" t="s">
+      <c r="B13" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1">
+      <c r="A14" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B14" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1">
+      <c r="A15" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="3" customFormat="1">
-      <c r="A13" s="3" t="s">
+      <c r="D15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1">
+      <c r="A16" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" s="3" customFormat="1">
-      <c r="A14" s="3" t="s">
+      <c r="B16" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1">
+      <c r="A17" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1">
+      <c r="A18" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1">
+      <c r="A19" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="3" customFormat="1">
-      <c r="A15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B20" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="3" customFormat="1">
-      <c r="A16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="3" customFormat="1">
-      <c r="A17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="3" customFormat="1">
-      <c r="A18" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="3" customFormat="1">
-      <c r="A19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>110</v>
+      <c r="D20" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/ruleLib/ruleLib.xlsx
+++ b/ruleLib/ruleLib.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="所有策略" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="128">
   <si>
     <t>rule类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -500,11 +500,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>3%</t>
     </r>
@@ -513,7 +511,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>长阳</t>
@@ -521,11 +518,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>7%</t>
     </r>
@@ -533,13 +528,21 @@
   </si>
   <si>
     <t>跳空1%涨停</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出为代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筹码分布</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -562,23 +565,19 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -654,16 +653,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -737,7 +731,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -772,7 +765,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -948,7 +940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1501,11 +1493,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1555,37 +1547,45 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>111</v>
       </c>
       <c r="B18" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="B19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="B20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="B21" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="B22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="B23" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1596,10 +1596,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/ruleLib/ruleLib.xlsx
+++ b/ruleLib/ruleLib.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -10,13 +10,14 @@
     <sheet name="所有策略" sheetId="2" r:id="rId1"/>
     <sheet name="rule整理" sheetId="1" r:id="rId2"/>
     <sheet name="a" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="143">
   <si>
     <t>rule类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -222,14 +223,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>其他策略</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前面5连阳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>依次放量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -387,10 +380,6 @@
   </si>
   <si>
     <t>*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -531,19 +520,91 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>输出为代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>筹码分布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护进程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程间通信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spder程序化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把代码分配给多个进程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前面5连阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续8连阴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5日 10日线走平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒L型，后两天有涨停</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好穿线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高送转除权后，涨停，开始填权行情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多日，如何组合选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被套后放量，清</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则留，破支撑清，-8补尾盘，-11清</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作策略：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,6 +640,21 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -606,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -647,17 +723,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -731,6 +813,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -765,6 +848,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -940,11 +1024,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -960,13 +1044,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>53</v>
@@ -978,12 +1062,12 @@
         <v>55</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -993,7 +1077,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1003,7 +1087,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -1016,7 +1100,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1029,7 +1113,7 @@
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1042,11 +1126,11 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>14</v>
@@ -1057,7 +1141,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1070,11 +1154,11 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>18</v>
@@ -1085,14 +1169,14 @@
     </row>
     <row r="10" spans="1:7" s="8" customFormat="1">
       <c r="A10" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>20</v>
@@ -1100,11 +1184,11 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>21</v>
@@ -1115,7 +1199,7 @@
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1">
       <c r="A12" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1128,7 +1212,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1141,7 +1225,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1154,7 +1238,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1167,7 +1251,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1180,7 +1264,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1193,7 +1277,7 @@
     </row>
     <row r="18" spans="1:7" s="8" customFormat="1">
       <c r="A18" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -1206,7 +1290,7 @@
     </row>
     <row r="19" spans="1:7" s="8" customFormat="1">
       <c r="A19" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -1219,7 +1303,7 @@
     </row>
     <row r="20" spans="1:7" s="8" customFormat="1">
       <c r="A20" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1232,7 +1316,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1245,7 +1329,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1258,7 +1342,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1282,28 +1366,28 @@
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1">
       <c r="A25" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -1316,7 +1400,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1338,151 +1422,151 @@
       <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>57</v>
+      <c r="A30" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="8" customFormat="1">
       <c r="A31" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>67</v>
+        <v>91</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="7" t="s">
-        <v>59</v>
+        <v>94</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="7" t="s">
-        <v>75</v>
+        <v>94</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="8" customFormat="1">
       <c r="A35" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="8" customFormat="1">
       <c r="A36" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="8" customFormat="1">
       <c r="A39" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="8" customFormat="1">
       <c r="A40" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1493,16 +1577,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1513,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1521,7 +1610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1529,63 +1618,93 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="E6" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="C18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+    <row r="22" spans="1:5">
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" t="s">
         <v>111</v>
       </c>
-      <c r="B18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
-        <v>126</v>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1596,11 +1715,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1614,13 +1733,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>53</v>
@@ -1632,7 +1751,7 @@
         <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1685,16 +1804,16 @@
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1">
       <c r="A11" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>20</v>
@@ -1702,51 +1821,51 @@
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1">
       <c r="A12" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1">
       <c r="A13" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>35</v>
@@ -1757,13 +1876,13 @@
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1">
       <c r="A15" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>13</v>
@@ -1774,16 +1893,16 @@
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1">
       <c r="A16" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>40</v>
@@ -1791,70 +1910,120 @@
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1">
       <c r="A17" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1">
       <c r="A18" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1">
       <c r="A19" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="E25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="C26" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="C27" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="C28" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="C29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="C32" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1862,4 +2031,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ruleLib/ruleLib.xlsx
+++ b/ruleLib/ruleLib.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="所有策略" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="144">
   <si>
     <t>rule类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -599,12 +599,28 @@
     <t>操作策略：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>依次放量，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改为1\2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,16 +660,20 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="55"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -682,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -724,22 +744,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -813,7 +831,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -848,7 +865,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1024,7 +1040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -1577,10 +1593,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1715,11 +1731,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1915,14 +1931,14 @@
       <c r="B17" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>93</v>
+      <c r="C17" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>102</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1">
@@ -2034,7 +2050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/ruleLib/ruleLib.xlsx
+++ b/ruleLib/ruleLib.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="所有策略" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="146">
   <si>
     <t>rule类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -615,11 +615,19 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>告警日期拉长</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>画量和换手</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -753,11 +761,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -831,6 +844,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -865,6 +879,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1040,10 +1055,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -1593,10 +1608,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1731,10 +1746,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -2050,13 +2065,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ruleLib/ruleLib.xlsx
+++ b/ruleLib/ruleLib.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="所有策略" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="141">
   <si>
     <t>rule类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>B历史连续涨停</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>支撑位，下影快速收回最好</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -73,14 +69,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>F连续阳线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有支撑位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>G阳包阴</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -165,9 +153,6 @@
     <t>R穿四根无序均线</t>
   </si>
   <si>
-    <t xml:space="preserve"> 且有6%长阳或长下影</t>
-  </si>
-  <si>
     <t>S穿任意4线</t>
   </si>
   <si>
@@ -181,18 +166,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>U拉升整理吸筹5线</t>
-  </si>
-  <si>
-    <t>不跌前期破涨停价</t>
-  </si>
-  <si>
-    <t>V拉升整理吸筹4线</t>
-  </si>
-  <si>
-    <t>振幅小，不跌破涨停价支撑</t>
-  </si>
-  <si>
     <t>W长阳后跳空小阳</t>
   </si>
   <si>
@@ -367,14 +340,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>附加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>m</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -400,10 +365,6 @@
   </si>
   <si>
     <t>a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -560,18 +521,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>基本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>连续8连阴</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5日 10日线走平</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>倒L型，后两天有涨停</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -584,10 +537,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>多日，如何组合选</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>被套后放量，清</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -600,34 +549,69 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>画量和换手</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>且有6%长阳或长下影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10日线走平</t>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前面5连阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃华 七喜 海岛 浙江永强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>依次放量，</t>
+      <t>r</t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
-        <color indexed="8"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>改为1\2</t>
+      <t>ule60</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>告警日期拉长</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>画量和换手</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>rule80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -677,9 +661,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="55"/>
+      <color indexed="22"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -710,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -755,22 +738,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -844,7 +829,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -879,7 +863,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1055,11 +1038,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1075,30 +1058,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1107,339 +1090,300 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="10" t="s">
-        <v>95</v>
-      </c>
+      <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="7" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="A7" s="10"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="10" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="11" t="s">
-        <v>93</v>
-      </c>
+      <c r="C9" s="11"/>
       <c r="D9" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="8" customFormat="1">
       <c r="A10" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="13" t="s">
-        <v>67</v>
-      </c>
+      <c r="C10" s="13"/>
       <c r="D10" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="10" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="11" t="s">
-        <v>93</v>
-      </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1">
       <c r="A12" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="10" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="10" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="10" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="10" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="8" customFormat="1">
       <c r="A18" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="8" customFormat="1">
       <c r="A19" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="8" customFormat="1">
       <c r="A20" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="23" customFormat="1">
+      <c r="A21" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="23" customFormat="1">
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+    </row>
+    <row r="23" spans="1:7" s="23" customFormat="1">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+    </row>
+    <row r="24" spans="1:7" s="23" customFormat="1">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E24" s="23" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1">
       <c r="A25" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B25" s="13"/>
-      <c r="C25" s="13" t="s">
-        <v>80</v>
-      </c>
+      <c r="C25" s="13"/>
       <c r="D25" s="8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1454,150 +1398,140 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="18" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="8" t="s">
-        <v>131</v>
-      </c>
+      <c r="C30" s="12"/>
       <c r="D30" s="8" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="8" customFormat="1">
       <c r="A31" s="10" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B31" s="12"/>
-      <c r="C31" s="12" t="s">
-        <v>93</v>
-      </c>
+      <c r="C31" s="12"/>
       <c r="D31" s="8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="10" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B32" s="12"/>
-      <c r="C32" s="8" t="s">
-        <v>133</v>
-      </c>
+      <c r="C32" s="12"/>
       <c r="D32" s="8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="12" t="s">
-        <v>57</v>
+      <c r="D33" s="24" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="8" customFormat="1">
       <c r="A35" s="10" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="8" customFormat="1">
       <c r="A36" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="10" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="10" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="8" customFormat="1">
       <c r="A39" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="8" customFormat="1">
       <c r="A40" s="12" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B40" s="12"/>
-      <c r="C40" s="12" t="s">
-        <v>101</v>
-      </c>
+      <c r="C40" s="12"/>
       <c r="D40" s="8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="14" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B41" s="12"/>
-      <c r="C41" s="12" t="s">
-        <v>80</v>
-      </c>
+      <c r="C41" s="12"/>
       <c r="D41" s="8" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1608,7 +1542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -1657,85 +1591,85 @@
         <v>5</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="E7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="E8" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="B19" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="B20" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="B26" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="B27" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1746,43 +1680,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="20.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46" customWidth="1"/>
-    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="15" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1812,6 +1746,9 @@
       <c r="B6" s="17"/>
       <c r="C6" s="18"/>
       <c r="D6" s="3"/>
+      <c r="G6" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="15"/>
@@ -1835,226 +1772,250 @@
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1">
       <c r="A11" s="17" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1">
       <c r="A12" s="17" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1">
       <c r="A13" s="17" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="17" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1">
       <c r="A15" s="17" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1">
       <c r="A16" s="17" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1">
       <c r="A17" s="17" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>67</v>
+        <v>87</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1">
       <c r="A18" s="17" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1">
       <c r="A19" s="14" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C19" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="14" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1">
+      <c r="A23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="C24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="E25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="C26" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="C27" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="C28" s="2" t="s">
+      <c r="E30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="C29" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="C32" s="2" t="s">
-        <v>138</v>
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2065,11 +2026,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2077,14 +2038,9 @@
     <col min="3" max="3" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:3">
-      <c r="C4" t="s">
-        <v>144</v>
-      </c>
-    </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/ruleLib/ruleLib.xlsx
+++ b/ruleLib/ruleLib.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="373" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="所有策略" sheetId="2" r:id="rId1"/>
     <sheet name="rule整理" sheetId="1" r:id="rId2"/>
     <sheet name="a" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="187">
   <si>
     <t>rule类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -557,23 +558,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10日线走平</t>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>前面5连阳</t>
@@ -607,12 +592,304 @@
     <t>rule50</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>海豚头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不交10日线斜向上洗盘3-7日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>放量破 身怀六甲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 形态高点</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波动极小，前期有涨停，买点：放量突破</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>形态策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大形态策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他指标策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金叉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大组合策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙头股连续涨停后首次调整买入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个涨停后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5天平台十字星（均线上方）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30日线5度斜率上升20天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>德力股份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACD背离下降最好</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20天内3个阴线，不超过2涨停，有跳空低开,正量多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ule30</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老鸭头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中海集运</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5日线走平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中加油</t>
+  </si>
+  <si>
+    <t>DIFF和DEA上穿零轴之后，DIFF 接近DEA时甚至粘合或者击穿之后股价开始回升 DIFF开始掉头向上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一浪强劲上涨，二浪缩量回调不破一浪中间位或不破中线组，再次放量起来就是主升浪</t>
+  </si>
+  <si>
+    <t>黑马三浪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>香雪制药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分时策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1分钟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>K策略</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云中漫步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夹板震荡突破</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>关注m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>acd</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>老鸭头</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>老鸭头
+是庄家建仓、洗盘、过鸭头顶拉高等一系列行为所形成的经典形态。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF454545"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鸭头顶离开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF454545"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF454545"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日均线要有一点距离，否则说明庄家在这个老鸭头处建仓意愿不强，老鸭头下一定要放量，否则一样说明庄家建仓意愿不强，老鸭头的鸭鼻孔要越小越好。鸭鼻孔下一定要有量芝麻点，否则说明庄家控盘性差。鸭嘴下一定要通气，通气性越高越好。最后就是三张鸭嘴一张，就嘎嘎嘎叫出了长阳线。</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨量阴线</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>该跌不跌即为涨</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈阳机床(酱板鸭)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量涨停，macd金叉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃华医药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考：我跟踪的是什么样的主力，该类主力一般何时入市建仓，何时推出？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>选股时，注意涨停板换手，阶段换手，macd等各种金叉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>（待完善）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,8 +943,98 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Simsun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF454545"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF454545"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,6 +1044,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,7 +1066,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -745,17 +1118,74 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -829,6 +1259,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -863,6 +1294,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1038,11 +1470,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1377,12 +1809,12 @@
       <c r="A27" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="7" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="26" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1479,12 +1911,12 @@
       <c r="A37" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="7" t="s">
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="26" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1542,7 +1974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -1680,342 +2112,467 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="13" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="31"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="20.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="38" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.375" customWidth="1"/>
+    <col min="6" max="6" width="36.5" customWidth="1"/>
     <col min="7" max="7" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="38" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
       <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="29" t="s">
+        <v>142</v>
+      </c>
       <c r="C3" s="16"/>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="3"/>
-      <c r="G6" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
+      <c r="A6" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1">
+      <c r="A7" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1">
+      <c r="A8" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1">
+      <c r="A9" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1">
+      <c r="A10" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1">
       <c r="A11" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>70</v>
+        <v>86</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>88</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>58</v>
+      <c r="D11" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="19" t="s">
+      <c r="B13" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1">
-      <c r="A13" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>107</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1">
-      <c r="A14" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1">
-      <c r="A15" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1">
-      <c r="A16" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1">
-      <c r="A17" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1">
-      <c r="A18" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="1" customFormat="1">
-      <c r="A19" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1">
-      <c r="A23" s="1" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1">
+      <c r="A18" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="D21" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="E26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="29"/>
+      <c r="D27" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="29"/>
+      <c r="C28" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="C29" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="E29" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="C30" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="1:6" s="46" customFormat="1">
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="31" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="51" customFormat="1" ht="12">
+      <c r="A44" s="48"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="F44" s="51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="C48" s="27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="29" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2026,11 +2583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2038,13 +2595,76 @@
     <col min="3" max="3" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:3">
+    <row r="3" spans="2:3" ht="40.5">
+      <c r="C3" s="54" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="C5" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" s="28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="59.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:2" ht="27">
+      <c r="A5" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="68.25">
+      <c r="B7" s="52" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ruleLib/ruleLib.xlsx
+++ b/ruleLib/ruleLib.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="373" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="373" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="所有策略" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="193">
   <si>
     <t>rule类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -593,25 +593,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>海豚头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不交10日线斜向上洗盘3-7日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>放量破 身怀六甲</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 形态高点</t>
     </r>
@@ -704,11 +694,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>ACD背离下降最好</t>
     </r>
@@ -725,18 +713,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>ule30</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老鸭头</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -776,11 +758,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>K策略</t>
     </r>
@@ -801,11 +781,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>acd</t>
     </r>
@@ -824,9 +802,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF454545"/>
+        <color indexed="63"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鸭头顶离开</t>
@@ -834,7 +811,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF454545"/>
+        <color indexed="63"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -843,9 +820,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF454545"/>
+        <color indexed="63"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日均线要有一点距离，否则说明庄家在这个老鸭头处建仓意愿不强，老鸭头下一定要放量，否则一样说明庄家建仓意愿不强，老鸭头的鸭鼻孔要越小越好。鸭鼻孔下一定要有量芝麻点，否则说明庄家控盘性差。鸭嘴下一定要通气，通气性越高越好。最后就是三张鸭嘴一张，就嘎嘎嘎叫出了长阳线。</t>
@@ -861,18 +837,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>沈阳机床(酱板鸭)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>放量涨停，macd金叉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>沃华医药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>思考：我跟踪的是什么样的主力，该类主力一般何时入市建仓，何时推出？</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -883,13 +847,73 @@
   <si>
     <t>（待完善）</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分时大涨时，粘合分时均线最强！</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一阳穿三阴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>连续20天正负25波动，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30日上方？</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈阳机床、沃华医药、北斗星通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老鸭头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃华医药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈阳机床(酱板鸭)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量涨停，macd金叉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海豚头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不交10日线斜向上洗盘3-7日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大中小斜口鸭头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,52 +971,42 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1003,34 +1017,34 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF454545"/>
+      <color indexed="63"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF454545"/>
+      <color indexed="63"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Simsun"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1049,7 +1063,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,7 +1080,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1170,22 +1184,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1259,7 +1270,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1294,7 +1304,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1470,11 +1479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1974,7 +1983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -2112,18 +2121,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="31"/>
-    <col min="3" max="3" width="9" style="2"/>
+    <col min="3" max="3" width="12.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.375" customWidth="1"/>
     <col min="6" max="6" width="36.5" customWidth="1"/>
@@ -2158,7 +2167,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C3" s="16"/>
     </row>
@@ -2334,245 +2343,282 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="30" t="s">
-        <v>143</v>
-      </c>
+      <c r="A14" s="14"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="29" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="1" customFormat="1">
-      <c r="A18" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="B18" s="33" t="s">
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1">
+      <c r="A19" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="D21" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>156</v>
-      </c>
-    </row>
     <row r="22" spans="1:6">
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
+      <c r="D22" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="29" t="s">
-        <v>145</v>
-      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>161</v>
+        <v>149</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="29"/>
-      <c r="D27" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="29"/>
-      <c r="C28" s="27" t="s">
+      <c r="D28" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="29"/>
+      <c r="C29" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="C30" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="C31" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="1:6" s="46" customFormat="1">
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="C29" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="F29" s="28" t="s">
+      <c r="D32" s="45"/>
+      <c r="E32" s="47" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="C30" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-    </row>
-    <row r="31" spans="1:6" s="46" customFormat="1">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="47" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>125</v>
-      </c>
+    <row r="33" spans="1:6" s="46" customFormat="1">
+      <c r="A33" s="43"/>
+      <c r="B33" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="47"/>
+    </row>
+    <row r="34" spans="1:6" s="46" customFormat="1">
+      <c r="A34" s="43"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="47"/>
+    </row>
+    <row r="35" spans="1:6" s="46" customFormat="1">
+      <c r="A35" s="43"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="47"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="29" t="s">
-        <v>147</v>
-      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="29" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="51" customFormat="1" ht="12">
-      <c r="A44" s="48"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="51" customFormat="1" ht="12">
+      <c r="A48" s="48"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="F48" s="51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="C52" s="27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="29" t="s">
         <v>169</v>
-      </c>
-      <c r="D44" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="F44" s="51" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="C48" s="27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="29" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2583,11 +2629,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2597,7 +2643,7 @@
   <sheetData>
     <row r="3" spans="2:3" ht="40.5">
       <c r="C3" s="54" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -2612,15 +2658,20 @@
     </row>
     <row r="9" spans="2:3">
       <c r="C9" s="28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="28" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>185</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2630,7 +2681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2644,23 +2695,23 @@
   <sheetData>
     <row r="5" spans="1:2" ht="27">
       <c r="A5" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="68.25">
       <c r="B7" s="52" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/ruleLib/ruleLib.xlsx
+++ b/ruleLib/ruleLib.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="373" activeTab="2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="199">
   <si>
     <t>rule类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -905,14 +905,72 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>大中小斜口鸭头</t>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>acd金叉，五连阳，macd空中加油</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旗形整理突破</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鸭头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中鸭头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鸭头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>rule8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>rule8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="23">
     <font>
       <sz val="11"/>
@@ -1043,8 +1101,9 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Simsun"/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1080,7 +1139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1185,18 +1244,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1270,6 +1335,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1304,6 +1370,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1479,7 +1546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -1983,7 +2050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -2121,11 +2188,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2526,23 +2593,34 @@
       <c r="B33" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="C33" s="56" t="s">
-        <v>192</v>
+      <c r="C33" s="47" t="s">
+        <v>194</v>
       </c>
       <c r="D33" s="45"/>
       <c r="E33" s="47"/>
+      <c r="F33" s="56" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="34" spans="1:6" s="46" customFormat="1">
       <c r="A34" s="43"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>195</v>
+      </c>
       <c r="D34" s="45"/>
       <c r="E34" s="47"/>
     </row>
     <row r="35" spans="1:6" s="46" customFormat="1">
       <c r="A35" s="43"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="47"/>
+      <c r="B35" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>196</v>
+      </c>
       <c r="D35" s="45"/>
       <c r="E35" s="47"/>
     </row>
@@ -2552,13 +2630,13 @@
       <c r="E36" s="28"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="29" t="s">
-        <v>144</v>
+      <c r="C37" s="47" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="29" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>136</v>
@@ -2567,31 +2645,36 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="29" t="s">
-        <v>145</v>
+    <row r="39" spans="1:6">
+      <c r="A39" s="29" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="29" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C41" s="27" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="29" t="s">
-        <v>147</v>
+    <row r="42" spans="1:6">
+      <c r="A42" s="29" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="29" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="51" customFormat="1" ht="12">
-      <c r="A48" s="48"/>
+    <row r="48" spans="1:6" s="51" customFormat="1">
+      <c r="A48" s="15"/>
       <c r="B48" s="49"/>
       <c r="C48" s="47" t="s">
         <v>166</v>
@@ -2603,21 +2686,24 @@
         <v>167</v>
       </c>
     </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="48"/>
+    </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="29" t="s">
-        <v>168</v>
-      </c>
       <c r="C51" s="27" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:3">
+      <c r="A52" s="29" t="s">
+        <v>168</v>
+      </c>
       <c r="C52" s="27" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="29" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" s="29" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2629,7 +2715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C18"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -2681,7 +2767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ruleLib/ruleLib.xlsx
+++ b/ruleLib/ruleLib.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="373" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="373" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="所有策略" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="a" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="知识" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="212">
   <si>
     <t>rule类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -386,10 +387,6 @@
   </si>
   <si>
     <t>大涨的延五日线，第一个阴线调整后继续涨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>涨停有三必有四</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -829,14 +826,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>巨量阴线</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>该跌不跌即为涨</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>思考：我跟踪的是什么样的主力，该类主力一般何时入市建仓，何时推出？</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -846,10 +835,6 @@
   </si>
   <si>
     <t>（待完善）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>分时大涨时，粘合分时均线最强！</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -966,12 +951,99 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>知识1</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>高送转</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>高送转概率个股的选股：一般在8至9月
+四个条件：三高一小，股价高（20以上）、净资产高（至少5元以上）、每股收益高（前三季在0.4~0.6）、股本非常小
+一般50%~100%
+分三个阶段：预期阶段、公告含权阶段、除权填权阶段
+最赚钱的是预期阶段，一般9至10月见底部，10至12月中大涨
+然后媒体热议时出局
+有的机构与上市公司合谋，1月建仓，振荡上行，9至10月有个盘整，10月后疯狂急拉（这种机构操盘最牛，但需公司配合）</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何选</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合选股器，财务指标，总股本小于2亿，…</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>具备高送条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>除权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有三必有五</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识2</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>分时均线</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>分时大涨时，粘合分时均线最强！分时均线=价格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*量</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识3</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>该跌不跌</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>该跌不跌即为涨！（巨量阴线后、平台下跌无量后），该涨不涨可能洗盘可先出</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页爬虫找数据</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据选股出来的总数，判断牛熊指数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>做自动交易软件，开盘买和制定价格卖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,6 +1178,35 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1139,7 +1240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1246,6 +1347,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1799,7 +1907,7 @@
         <v>34</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="8" customFormat="1">
@@ -1906,12 +2014,12 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="12"/>
       <c r="D30" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="8" customFormat="1">
@@ -1934,7 +2042,7 @@
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2026,7 +2134,7 @@
         <v>89</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2039,7 +2147,7 @@
         <v>77</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2053,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2099,17 +2207,22 @@
         <v>5</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="E7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="E8" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="61" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2117,67 +2230,67 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>96</v>
+    <row r="15" spans="1:5">
+      <c r="A15" s="61" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
         <v>97</v>
       </c>
-      <c r="B18" t="s">
-        <v>98</v>
-      </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="B19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="B20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" t="s">
         <v>113</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>114</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>115</v>
       </c>
-      <c r="D25" t="s">
-        <v>116</v>
-      </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="B26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="B27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2189,10 +2302,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2234,7 +2347,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="16"/>
     </row>
@@ -2266,7 +2379,7 @@
         <v>72</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>50</v>
@@ -2283,7 +2396,7 @@
         <v>78</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>77</v>
@@ -2298,7 +2411,7 @@
         <v>79</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>32</v>
@@ -2386,10 +2499,10 @@
         <v>94</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2397,314 +2510,332 @@
         <v>75</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="14"/>
       <c r="B14" s="41"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="5" t="s">
-        <v>182</v>
+      <c r="D14" s="60" t="s">
+        <v>178</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="29" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1">
-      <c r="A19" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>57</v>
+    <row r="20" spans="1:6" s="1" customFormat="1">
+      <c r="A20" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" t="s">
         <v>123</v>
       </c>
-      <c r="E21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="D22" s="27" t="s">
+    </row>
+    <row r="23" spans="1:6">
+      <c r="D23" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="29" t="s">
-        <v>143</v>
-      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E25" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>159</v>
+        <v>148</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" t="s">
-        <v>133</v>
+        <v>148</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="29"/>
-      <c r="D28" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>158</v>
+      <c r="A28" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="29"/>
-      <c r="C29" s="23" t="s">
+      <c r="D29" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="29"/>
+      <c r="C30" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="C31" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D31" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="E29" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="C30" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="28" t="s">
+      <c r="E31" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="C32" s="27" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="C31" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-    </row>
-    <row r="32" spans="1:6" s="46" customFormat="1">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="47" t="s">
-        <v>164</v>
-      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
     </row>
     <row r="33" spans="1:6" s="46" customFormat="1">
       <c r="A33" s="43"/>
-      <c r="B33" s="55" t="s">
-        <v>191</v>
-      </c>
+      <c r="B33" s="44"/>
       <c r="C33" s="47" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="D33" s="45"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="56" t="s">
-        <v>192</v>
+      <c r="E33" s="47" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="46" customFormat="1">
       <c r="A34" s="43"/>
-      <c r="B34" s="57" t="s">
-        <v>197</v>
+      <c r="B34" s="55" t="s">
+        <v>187</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D34" s="45"/>
       <c r="E34" s="47"/>
+      <c r="F34" s="56" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="35" spans="1:6" s="46" customFormat="1">
       <c r="A35" s="43"/>
       <c r="B35" s="57" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D35" s="45"/>
       <c r="E35" s="47"/>
     </row>
-    <row r="36" spans="1:6">
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="28"/>
+    <row r="36" spans="1:6" s="46" customFormat="1">
+      <c r="A36" s="43"/>
+      <c r="B36" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" s="45"/>
+      <c r="E36" s="47"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="C37" s="47" t="s">
-        <v>193</v>
-      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>125</v>
+      <c r="C38" s="47" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="29" t="s">
-        <v>150</v>
+        <v>143</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="29" t="s">
-        <v>151</v>
+      <c r="A41" s="29"/>
+      <c r="C41" s="59" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="29" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="51" customFormat="1">
-      <c r="A48" s="15"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="47" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="51" customFormat="1">
+      <c r="A51" s="15"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="F51" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="D48" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="F48" s="51" t="s">
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="48"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="C54" s="27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="29" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="48"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="C51" s="27" t="s">
+      <c r="C55" s="27" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="29" t="s">
+    <row r="58" spans="1:6">
+      <c r="A58" s="29" t="s">
         <v>168</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="29" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2716,10 +2847,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C18"/>
+  <dimension ref="B3:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2727,37 +2858,35 @@
     <col min="3" max="3" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="40.5">
+    <row r="3" spans="2:4" ht="40.5">
       <c r="C3" s="54" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="C5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="C5" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:4">
       <c r="C9" s="28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
       <c r="B14" s="28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2770,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2781,27 +2910,84 @@
   <sheetData>
     <row r="5" spans="1:2" ht="27">
       <c r="A5" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="53" t="s">
         <v>173</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="68.25">
       <c r="B7" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>177</v>
-      </c>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="121" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="94.5">
+      <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ruleLib/ruleLib.xlsx
+++ b/ruleLib/ruleLib.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19665" windowHeight="4380" tabRatio="373" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="373" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="所有策略" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
   <si>
     <t>分类</t>
   </si>
@@ -288,10 +288,10 @@
     <t>筹码分布</t>
   </si>
   <si>
-    <t>读文件取股票</t>
-  </si>
-  <si>
     <t>不复权</t>
+  </si>
+  <si>
+    <t>价格与实际不符</t>
   </si>
   <si>
     <t>code范围</t>
@@ -410,6 +410,18 @@
     <t>一阳补三阴</t>
   </si>
   <si>
+    <t>rule12</t>
+  </si>
+  <si>
+    <t>上影小阳次日高开</t>
+  </si>
+  <si>
+    <t>观察长上影小阳线，第二天涨停，第三天开始的走势</t>
+  </si>
+  <si>
+    <t>涨停包长阴（上涨过程）</t>
+  </si>
+  <si>
     <t>有三必有五</t>
   </si>
   <si>
@@ -650,27 +662,7 @@
     <t>中鸭头</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>rule8</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>小鸭头</t>
+    <t>时间窗口通用型</t>
   </si>
   <si>
     <t>旗形整理突破</t>
@@ -878,17 +870,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -946,11 +931,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -965,26 +945,6 @@
       <sz val="10"/>
       <name val="Simsun"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -1003,64 +963,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1073,21 +979,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1118,6 +1009,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1129,12 +1096,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -1157,6 +1118,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1170,174 +1299,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1348,60 +1309,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1416,15 +1323,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1448,234 +1346,295 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2024,8 +1983,8 @@
   <sheetPr/>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="D37:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2103,16 +2062,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" s="38" customFormat="1" spans="1:5">
+    <row r="6" s="36" customFormat="1" spans="1:5">
       <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="38" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="36" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2147,16 +2106,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" s="38" customFormat="1" spans="1:5">
+    <row r="10" s="36" customFormat="1" spans="1:5">
       <c r="A10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="38" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="36" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2173,16 +2132,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" s="38" customFormat="1" spans="1:5">
+    <row r="12" s="36" customFormat="1" spans="1:5">
       <c r="A12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="38" t="s">
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="36" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2251,95 +2210,95 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" s="38" customFormat="1" spans="1:5">
+    <row r="18" s="36" customFormat="1" spans="1:5">
       <c r="A18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="38" t="s">
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" s="38" customFormat="1" spans="1:5">
+    <row r="19" s="36" customFormat="1" spans="1:5">
       <c r="A19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="38" t="s">
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" s="38" customFormat="1" spans="1:5">
+    <row r="20" s="36" customFormat="1" spans="1:5">
       <c r="A20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="38" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" s="29" customFormat="1" spans="1:5">
-      <c r="A21" s="40" t="s">
+    <row r="21" s="28" customFormat="1" spans="1:5">
+      <c r="A21" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="29" t="s">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" s="29" customFormat="1" spans="1:3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-    </row>
-    <row r="23" s="29" customFormat="1" spans="1:3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-    </row>
-    <row r="24" s="29" customFormat="1" spans="1:5">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="29" t="s">
+    <row r="22" s="28" customFormat="1" spans="1:3">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+    </row>
+    <row r="23" s="28" customFormat="1" spans="1:3">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+    </row>
+    <row r="24" s="28" customFormat="1" spans="1:5">
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" s="38" customFormat="1" spans="1:7">
+    <row r="25" s="36" customFormat="1" spans="1:7">
       <c r="A25" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="38" t="s">
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="G25" s="36" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2360,12 +2319,12 @@
       <c r="A27" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43" t="s">
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="E27" s="41" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2383,22 +2342,22 @@
       <c r="A30" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="38" t="s">
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" s="38" customFormat="1" spans="1:5">
+    <row r="31" s="36" customFormat="1" spans="1:5">
       <c r="A31" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="38" t="s">
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="38" t="s">
+      <c r="E31" s="36" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2406,9 +2365,9 @@
       <c r="A32" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="38" t="s">
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="36" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2416,9 +2375,9 @@
       <c r="A33" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="44" t="s">
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="42" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2426,35 +2385,35 @@
       <c r="A34" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39" t="s">
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" s="38" customFormat="1" spans="1:5">
+    <row r="35" s="36" customFormat="1" spans="1:5">
       <c r="A35" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="38" t="s">
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="36" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" s="38" customFormat="1" spans="1:5">
+    <row r="36" s="36" customFormat="1" spans="1:5">
       <c r="A36" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="38" t="s">
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="38" t="s">
+      <c r="E36" s="36" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2462,12 +2421,12 @@
       <c r="A37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="43" t="s">
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="43" t="s">
+      <c r="E37" s="41" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2481,26 +2440,26 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" s="38" customFormat="1" spans="1:4">
+    <row r="39" s="36" customFormat="1" spans="1:4">
       <c r="A39" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="38" t="s">
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" s="38" customFormat="1" spans="1:5">
-      <c r="A40" s="39" t="s">
+    <row r="40" s="36" customFormat="1" spans="1:5">
+      <c r="A40" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="38" t="s">
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="38" t="s">
+      <c r="E40" s="36" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2508,12 +2467,12 @@
       <c r="A41" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="38" t="s">
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="38" t="s">
+      <c r="E41" s="36" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2529,8 +2488,8 @@
   <sheetPr/>
   <dimension ref="A2:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2614,13 +2573,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2671,10 +2628,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2901,131 +2858,137 @@
       <c r="C14" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>117</v>
       </c>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="25" t="s">
+      <c r="A15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="C15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="21"/>
       <c r="B16" s="22"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="26" t="s">
+      <c r="C16" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>121</v>
       </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" s="8" customFormat="1" spans="1:4">
-      <c r="A21" s="19" t="s">
+      <c r="B20" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" s="8" customFormat="1" spans="1:4">
+      <c r="A23" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="20" t="s">
+      <c r="B23" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="16" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="16" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5">
-      <c r="D24" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5">
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="16" t="s">
+      <c r="D25" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="16" t="s">
+      <c r="E25" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="3" t="s">
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E26" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="27" spans="5:5">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="14" t="s">
         <v>137</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -3035,185 +2998,206 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="16"/>
+    <row r="30" spans="1:4">
+      <c r="A30" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="D30" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E30" s="3" t="s">
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="16"/>
-      <c r="C31" s="29" t="s">
+      <c r="E31" t="s">
         <v>143</v>
       </c>
-      <c r="D31" s="29" t="s">
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="16"/>
+      <c r="D32" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E32" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F32" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="3:6">
-      <c r="C32" s="29" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" s="16"/>
+      <c r="C33" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D33" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E33" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F33" s="28" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="3:6">
-      <c r="C33" s="3" t="s">
+    <row r="34" spans="3:6">
+      <c r="C34" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" s="9" customFormat="1" spans="1:5">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32" t="s">
+      <c r="D34" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="35" s="9" customFormat="1" spans="1:6">
-      <c r="A35" s="30"/>
-      <c r="B35" s="33" t="s">
+      <c r="F34" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C35" s="32" t="s">
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="9" t="s">
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" s="9" customFormat="1" spans="1:5">
+      <c r="A36" s="29"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="36" s="9" customFormat="1" spans="1:5">
-      <c r="A36" s="30"/>
-      <c r="B36" s="34" t="s">
+      <c r="E36" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="C36" s="32" t="s">
+    </row>
+    <row r="37" s="9" customFormat="1" spans="1:6">
+      <c r="A37" s="29"/>
+      <c r="B37" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="E36" s="32"/>
-    </row>
-    <row r="37" s="9" customFormat="1" spans="1:5">
-      <c r="A37" s="30"/>
-      <c r="B37" s="34" t="s">
+      <c r="C37" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="E37" s="31"/>
+      <c r="F37" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E37" s="32"/>
-    </row>
-    <row r="38" spans="5:5">
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="32" t="s">
+    </row>
+    <row r="38" s="9" customFormat="1" spans="1:5">
+      <c r="A38" s="29"/>
+      <c r="B38" s="32" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="16" t="s">
+      <c r="C38" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="D38" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E38" s="31"/>
+    </row>
+    <row r="39" s="9" customFormat="1" spans="1:5">
+      <c r="A39" s="29"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="31"/>
+      <c r="E39" s="31"/>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="31" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="16" t="s">
+    <row r="42" spans="1:4">
+      <c r="A42" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="B42" s="12" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="16"/>
-      <c r="C42" s="35" t="s">
+      <c r="D42" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="16" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C43" s="33" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="16" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" s="16"/>
+      <c r="C44" s="33" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="52" s="10" customFormat="1" spans="1:6">
-      <c r="A52" s="11"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="D52" s="10" t="s">
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="F52" s="10" t="s">
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="16" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="37"/>
-    </row>
-    <row r="55" spans="3:3">
-      <c r="C55" s="3" t="s">
+    <row r="54" s="10" customFormat="1" spans="1:6">
+      <c r="A54" s="11"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="31" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="16" t="s">
+      <c r="D54" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="F54" s="10" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="16" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="35"/>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="3" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="16" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3229,7 +3213,7 @@
   <dimension ref="B3:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3239,15 +3223,15 @@
   <sheetData>
     <row r="3" ht="40.5" spans="3:3">
       <c r="C3" s="6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="3:3">
@@ -3257,15 +3241,15 @@
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3290,15 +3274,15 @@
   <sheetData>
     <row r="5" ht="27" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" ht="68.25" spans="2:2">
       <c r="B7" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3316,8 +3300,8 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -3328,43 +3312,43 @@
   <sheetData>
     <row r="1" ht="94.5" spans="1:3">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/ruleLib/ruleLib.xlsx
+++ b/ruleLib/ruleLib.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="373" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="373" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="所有策略" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
     <sheet name="知识" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="206">
   <si>
     <t>分类</t>
   </si>
@@ -475,7 +475,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -516,7 +516,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -792,7 +792,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>60</t>
     </r>
@@ -837,7 +837,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -846,7 +846,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -862,18 +862,28 @@
   <si>
     <t>该跌不跌即为涨！（巨量阴线后、平台下跌无量后），该涨不涨可能洗盘可先出</t>
   </si>
+  <si>
+    <t>分析系统构架</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入规则</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>几天内</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>定点盈亏统计</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="32">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -897,14 +907,13 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -931,7 +940,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -947,157 +956,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1116,194 +993,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1311,253 +1002,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1637,58 +1086,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -1979,15 +1382,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E37" sqref="D37:E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="20"/>
     <col min="2" max="3" width="9" style="3"/>
@@ -2021,7 +1423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" s="19" t="s">
         <v>7</v>
       </c>
@@ -2031,12 +1433,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7">
       <c r="A3" s="19"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
@@ -2049,7 +1451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="19" t="s">
         <v>9</v>
       </c>
@@ -2062,7 +1464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" s="36" customFormat="1" spans="1:5">
+    <row r="6" spans="1:7" s="36" customFormat="1">
       <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
@@ -2075,12 +1477,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:7">
       <c r="A7" s="19"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
@@ -2093,7 +1495,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9" s="19" t="s">
         <v>19</v>
       </c>
@@ -2106,7 +1508,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" s="36" customFormat="1" spans="1:5">
+    <row r="10" spans="1:7" s="36" customFormat="1">
       <c r="A10" s="19" t="s">
         <v>14</v>
       </c>
@@ -2119,7 +1521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:7">
       <c r="A11" s="19" t="s">
         <v>19</v>
       </c>
@@ -2132,7 +1534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" s="36" customFormat="1" spans="1:5">
+    <row r="12" spans="1:7" s="36" customFormat="1">
       <c r="A12" s="19" t="s">
         <v>14</v>
       </c>
@@ -2145,7 +1547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:7">
       <c r="A13" s="19" t="s">
         <v>9</v>
       </c>
@@ -2158,7 +1560,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:7">
       <c r="A14" s="19" t="s">
         <v>19</v>
       </c>
@@ -2171,7 +1573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:7">
       <c r="A15" s="19" t="s">
         <v>7</v>
       </c>
@@ -2184,7 +1586,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:7">
       <c r="A16" s="19" t="s">
         <v>19</v>
       </c>
@@ -2197,7 +1599,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:7">
       <c r="A17" s="19" t="s">
         <v>19</v>
       </c>
@@ -2210,7 +1612,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" s="36" customFormat="1" spans="1:5">
+    <row r="18" spans="1:7" s="36" customFormat="1">
       <c r="A18" s="19" t="s">
         <v>14</v>
       </c>
@@ -2223,7 +1625,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" s="36" customFormat="1" spans="1:5">
+    <row r="19" spans="1:7" s="36" customFormat="1">
       <c r="A19" s="19" t="s">
         <v>14</v>
       </c>
@@ -2236,7 +1638,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" s="36" customFormat="1" spans="1:5">
+    <row r="20" spans="1:7" s="36" customFormat="1">
       <c r="A20" s="19" t="s">
         <v>14</v>
       </c>
@@ -2249,7 +1651,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" s="28" customFormat="1" spans="1:5">
+    <row r="21" spans="1:7" s="28" customFormat="1">
       <c r="A21" s="38" t="s">
         <v>7</v>
       </c>
@@ -2262,17 +1664,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" s="28" customFormat="1" spans="1:3">
+    <row r="22" spans="1:7" s="28" customFormat="1">
       <c r="A22" s="38"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
     </row>
-    <row r="23" s="28" customFormat="1" spans="1:3">
+    <row r="23" spans="1:7" s="28" customFormat="1">
       <c r="A23" s="38"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
     </row>
-    <row r="24" s="28" customFormat="1" spans="1:5">
+    <row r="24" spans="1:7" s="28" customFormat="1">
       <c r="A24" s="38"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -2283,7 +1685,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" s="36" customFormat="1" spans="1:7">
+    <row r="25" spans="1:7" s="36" customFormat="1">
       <c r="A25" s="19" t="s">
         <v>14</v>
       </c>
@@ -2302,7 +1704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:7">
       <c r="A26" s="19" t="s">
         <v>52</v>
       </c>
@@ -2315,7 +1717,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:7">
       <c r="A27" s="19" t="s">
         <v>52</v>
       </c>
@@ -2328,17 +1730,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:7">
       <c r="A28" s="19"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:7">
       <c r="A29" s="19"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:7">
       <c r="A30" s="19" t="s">
         <v>14</v>
       </c>
@@ -2348,7 +1750,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" s="36" customFormat="1" spans="1:5">
+    <row r="31" spans="1:7" s="36" customFormat="1">
       <c r="A31" s="19" t="s">
         <v>14</v>
       </c>
@@ -2361,7 +1763,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:7">
       <c r="A32" s="19" t="s">
         <v>19</v>
       </c>
@@ -2371,7 +1773,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" s="19" t="s">
         <v>52</v>
       </c>
@@ -2381,7 +1783,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" s="19" t="s">
         <v>52</v>
       </c>
@@ -2391,7 +1793,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" s="36" customFormat="1" spans="1:5">
+    <row r="35" spans="1:5" s="36" customFormat="1">
       <c r="A35" s="19" t="s">
         <v>14</v>
       </c>
@@ -2404,7 +1806,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" s="36" customFormat="1" spans="1:5">
+    <row r="36" spans="1:5" s="36" customFormat="1">
       <c r="A36" s="19" t="s">
         <v>14</v>
       </c>
@@ -2430,7 +1832,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38" s="19" t="s">
         <v>19</v>
       </c>
@@ -2440,7 +1842,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" s="36" customFormat="1" spans="1:4">
+    <row r="39" spans="1:5" s="36" customFormat="1">
       <c r="A39" s="19" t="s">
         <v>14</v>
       </c>
@@ -2450,7 +1852,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" s="36" customFormat="1" spans="1:5">
+    <row r="40" spans="1:5" s="36" customFormat="1">
       <c r="A40" s="37" t="s">
         <v>14</v>
       </c>
@@ -2477,29 +1879,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A2:E27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="5" max="5" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -2510,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>76</v>
       </c>
@@ -2518,7 +1919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>77</v>
       </c>
@@ -2537,32 +1938,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="5:5">
+    <row r="7" spans="1:5">
       <c r="E7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="5:5">
+    <row r="8" spans="1:5">
       <c r="E8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -2573,7 +1974,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="1:5">
       <c r="B20" t="s">
         <v>89</v>
       </c>
@@ -2581,12 +1982,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:5">
       <c r="B23" t="s">
         <v>92</v>
       </c>
@@ -2608,33 +2009,47 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:5">
       <c r="B26" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="1:5">
       <c r="B27" t="s">
         <v>99</v>
       </c>
     </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" style="11" customWidth="1"/>
     <col min="2" max="2" width="9" style="12"/>
@@ -2668,16 +2083,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="3:3">
+    <row r="2" spans="1:7">
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7">
       <c r="A3" s="16" t="s">
         <v>100</v>
       </c>
       <c r="C3" s="16"/>
     </row>
-    <row r="4" s="8" customFormat="1" spans="1:5">
+    <row r="4" spans="1:7" s="8" customFormat="1">
       <c r="A4" s="17" t="s">
         <v>14</v>
       </c>
@@ -2694,7 +2109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" spans="1:6">
+    <row r="5" spans="1:7" s="8" customFormat="1">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
@@ -2714,7 +2129,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="1" spans="1:5">
+    <row r="6" spans="1:7" s="8" customFormat="1">
       <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
@@ -2729,7 +2144,7 @@
       </c>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" s="8" customFormat="1" spans="1:5">
+    <row r="7" spans="1:7" s="8" customFormat="1">
       <c r="A7" s="17" t="s">
         <v>14</v>
       </c>
@@ -2746,7 +2161,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" s="8" customFormat="1" spans="1:5">
+    <row r="8" spans="1:7" s="8" customFormat="1">
       <c r="A8" s="17" t="s">
         <v>14</v>
       </c>
@@ -2763,7 +2178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" s="8" customFormat="1" spans="1:5">
+    <row r="9" spans="1:7" s="8" customFormat="1">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -2780,7 +2195,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="1" spans="1:5">
+    <row r="10" spans="1:7" s="8" customFormat="1">
       <c r="A10" s="17" t="s">
         <v>14</v>
       </c>
@@ -2797,7 +2212,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" s="8" customFormat="1" spans="1:5">
+    <row r="11" spans="1:7" s="8" customFormat="1">
       <c r="A11" s="17" t="s">
         <v>14</v>
       </c>
@@ -2814,7 +2229,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" s="8" customFormat="1" spans="1:5">
+    <row r="12" spans="1:7" s="8" customFormat="1">
       <c r="A12" s="21" t="s">
         <v>14</v>
       </c>
@@ -2831,7 +2246,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:7">
       <c r="A13" s="21" t="s">
         <v>14</v>
       </c>
@@ -2848,7 +2263,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:7">
       <c r="A14" s="21" t="s">
         <v>14</v>
       </c>
@@ -2863,7 +2278,7 @@
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:7">
       <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
@@ -2880,7 +2295,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:7">
       <c r="A16" s="21"/>
       <c r="B16" s="22"/>
       <c r="C16" s="21" t="s">
@@ -2891,7 +2306,7 @@
       </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="21"/>
       <c r="B17" s="22"/>
       <c r="C17" s="19"/>
@@ -2900,7 +2315,7 @@
       </c>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="21"/>
       <c r="B18" s="22"/>
       <c r="C18" s="19"/>
@@ -2911,12 +2326,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:6">
       <c r="A19" s="25" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="16" t="s">
         <v>9</v>
       </c>
@@ -2930,12 +2345,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:6">
       <c r="A22" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" s="8" customFormat="1" spans="1:4">
+    <row r="23" spans="1:6" s="8" customFormat="1">
       <c r="A23" s="19" t="s">
         <v>19</v>
       </c>
@@ -2949,7 +2364,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:6">
       <c r="A24" s="16" t="s">
         <v>19</v>
       </c>
@@ -2960,7 +2375,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" s="16" t="s">
         <v>19</v>
       </c>
@@ -2971,7 +2386,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="1:6">
       <c r="D26" s="3" t="s">
         <v>134</v>
       </c>
@@ -2979,15 +2394,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="5:5">
+    <row r="27" spans="1:6">
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:6">
       <c r="A28" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="16" t="s">
         <v>137</v>
       </c>
@@ -2998,7 +2413,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:6">
       <c r="A30" s="16" t="s">
         <v>137</v>
       </c>
@@ -3006,7 +2421,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="16" t="s">
         <v>137</v>
       </c>
@@ -3047,7 +2462,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="3:6">
+    <row r="34" spans="1:6">
       <c r="C34" s="28" t="s">
         <v>151</v>
       </c>
@@ -3061,14 +2476,14 @@
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="3:6">
+    <row r="35" spans="1:6">
       <c r="C35" s="3" t="s">
         <v>155</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" s="9" customFormat="1" spans="1:5">
+    <row r="36" spans="1:6" s="9" customFormat="1">
       <c r="A36" s="29"/>
       <c r="B36" s="30"/>
       <c r="C36" s="31" t="s">
@@ -3078,7 +2493,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" s="9" customFormat="1" spans="1:6">
+    <row r="37" spans="1:6" s="9" customFormat="1">
       <c r="A37" s="29"/>
       <c r="B37" s="32" t="s">
         <v>158</v>
@@ -3091,7 +2506,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" s="9" customFormat="1" spans="1:5">
+    <row r="38" spans="1:6" s="9" customFormat="1">
       <c r="A38" s="29"/>
       <c r="B38" s="32" t="s">
         <v>161</v>
@@ -3104,21 +2519,21 @@
       </c>
       <c r="E38" s="31"/>
     </row>
-    <row r="39" s="9" customFormat="1" spans="1:5">
+    <row r="39" spans="1:6" s="9" customFormat="1">
       <c r="A39" s="29"/>
       <c r="B39" s="32"/>
       <c r="C39" s="31"/>
       <c r="E39" s="31"/>
     </row>
-    <row r="40" spans="5:5">
+    <row r="40" spans="1:6">
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="1:6">
       <c r="C41" s="31" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:6">
       <c r="A42" s="16" t="s">
         <v>165</v>
       </c>
@@ -3129,7 +2544,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:6">
       <c r="A43" s="16" t="s">
         <v>168</v>
       </c>
@@ -3137,13 +2552,13 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:6">
       <c r="A44" s="16"/>
       <c r="C44" s="33" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:6">
       <c r="A47" s="16" t="s">
         <v>171</v>
       </c>
@@ -3151,22 +2566,22 @@
         <v>172</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:6">
       <c r="A48" s="16" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:6">
       <c r="A50" s="16" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:6">
       <c r="A51" s="16" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="54" s="10" customFormat="1" spans="1:6">
+    <row r="54" spans="1:6" s="10" customFormat="1">
       <c r="A54" s="11"/>
       <c r="B54" s="34"/>
       <c r="C54" s="31" t="s">
@@ -3179,15 +2594,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:6">
       <c r="A55" s="35"/>
     </row>
-    <row r="57" spans="3:3">
+    <row r="57" spans="1:6">
       <c r="C57" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:6">
       <c r="A58" s="16" t="s">
         <v>180</v>
       </c>
@@ -3195,38 +2610,37 @@
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:6">
       <c r="A61" s="16" t="s">
         <v>182</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="40.5" spans="3:3">
+    <row r="3" spans="2:4" ht="40.5">
       <c r="C3" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" spans="2:4">
       <c r="C5" s="7" t="s">
         <v>184</v>
       </c>
@@ -3234,17 +2648,17 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="2:4">
       <c r="C8" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="2:4">
       <c r="C9" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:4">
       <c r="B14" s="3" t="s">
         <v>187</v>
       </c>
@@ -3253,26 +2667,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:B15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="59.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" ht="27" spans="1:2">
+    <row r="5" spans="1:2" ht="27">
       <c r="A5" s="3" t="s">
         <v>147</v>
       </c>
@@ -3280,7 +2693,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" ht="68.25" spans="2:2">
+    <row r="7" spans="1:2" ht="68.25">
       <c r="B7" s="5" t="s">
         <v>190</v>
       </c>
@@ -3290,27 +2703,26 @@
       <c r="B15" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="121" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="94.5" spans="1:3">
+    <row r="1" spans="1:3" ht="94.5">
       <c r="A1" t="s">
         <v>191</v>
       </c>
@@ -3321,7 +2733,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>194</v>
       </c>
@@ -3352,7 +2764,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ruleLib/ruleLib.xlsx
+++ b/ruleLib/ruleLib.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="373" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="373" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="所有策略" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="207">
   <si>
     <t>分类</t>
   </si>
@@ -864,26 +864,30 @@
   </si>
   <si>
     <t>分析系统构架</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>输入规则</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>几天内</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>定点盈亏统计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>find1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -956,12 +960,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1006,7 +1004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1086,7 +1084,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1385,7 +1384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E37" sqref="D37:E37"/>
     </sheetView>
   </sheetViews>
@@ -1879,7 +1878,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1887,10 +1886,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E31"/>
+  <dimension ref="A2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1963,7 +1962,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -1974,7 +1973,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="B20" t="s">
         <v>89</v>
       </c>
@@ -1982,17 +1981,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="B22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="B23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -2009,17 +2008,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="B26" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="B27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="43" t="s">
         <v>202</v>
       </c>
@@ -2033,9 +2032,12 @@
       <c r="E31" s="43" t="s">
         <v>205</v>
       </c>
+      <c r="F31" s="44" t="s">
+        <v>206</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2045,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2616,7 +2618,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -2667,7 +2669,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2703,7 +2705,7 @@
       <c r="B15" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2764,7 +2766,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ruleLib/ruleLib.xlsx
+++ b/ruleLib/ruleLib.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="373" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="373" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="所有策略" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
     <sheet name="知识" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207">
   <si>
     <t>分类</t>
   </si>
@@ -319,6 +319,21 @@
   </si>
   <si>
     <t>spder程序化</t>
+  </si>
+  <si>
+    <t>分析系统构架</t>
+  </si>
+  <si>
+    <t>输入规则</t>
+  </si>
+  <si>
+    <t>几天内</t>
+  </si>
+  <si>
+    <t>定点盈亏统计</t>
+  </si>
+  <si>
+    <t>find1</t>
   </si>
   <si>
     <t>基础策略</t>
@@ -413,7 +428,7 @@
     <t>rule12</t>
   </si>
   <si>
-    <t>上影小阳次日高开</t>
+    <t>上影小阳次日高开,或长阳补回</t>
   </si>
   <si>
     <t>观察长上影小阳线，第二天涨停，第三天开始的走势</t>
@@ -792,7 +807,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>60</t>
     </r>
@@ -862,32 +877,18 @@
   <si>
     <t>该跌不跌即为涨！（巨量阴线后、平台下跌无量后），该涨不涨可能洗盘可先出</t>
   </si>
-  <si>
-    <t>分析系统构架</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入规则</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>几天内</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>定点盈亏统计</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>find1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -911,7 +912,7 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -944,12 +945,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="22"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -960,19 +955,165 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -991,8 +1132,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1000,11 +1327,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1049,32 +1618,32 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1084,13 +1653,58 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -1381,14 +1995,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E37" sqref="D37:E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="20"/>
     <col min="2" max="3" width="9" style="3"/>
@@ -1422,7 +2037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:4">
       <c r="A2" s="19" t="s">
         <v>7</v>
       </c>
@@ -1432,12 +2047,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:3">
       <c r="A3" s="19"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:5">
       <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
@@ -1450,7 +2065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:5">
       <c r="A5" s="19" t="s">
         <v>9</v>
       </c>
@@ -1463,7 +2078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="36" customFormat="1">
+    <row r="6" s="36" customFormat="1" spans="1:5">
       <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
@@ -1476,12 +2091,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:3">
       <c r="A7" s="19"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:5">
       <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
@@ -1494,7 +2109,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:5">
       <c r="A9" s="19" t="s">
         <v>19</v>
       </c>
@@ -1507,7 +2122,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="36" customFormat="1">
+    <row r="10" s="36" customFormat="1" spans="1:5">
       <c r="A10" s="19" t="s">
         <v>14</v>
       </c>
@@ -1520,7 +2135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:5">
       <c r="A11" s="19" t="s">
         <v>19</v>
       </c>
@@ -1533,7 +2148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="36" customFormat="1">
+    <row r="12" s="36" customFormat="1" spans="1:5">
       <c r="A12" s="19" t="s">
         <v>14</v>
       </c>
@@ -1546,7 +2161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:5">
       <c r="A13" s="19" t="s">
         <v>9</v>
       </c>
@@ -1559,7 +2174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:5">
       <c r="A14" s="19" t="s">
         <v>19</v>
       </c>
@@ -1572,7 +2187,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:5">
       <c r="A15" s="19" t="s">
         <v>7</v>
       </c>
@@ -1585,7 +2200,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:5">
       <c r="A16" s="19" t="s">
         <v>19</v>
       </c>
@@ -1598,7 +2213,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:5">
       <c r="A17" s="19" t="s">
         <v>19</v>
       </c>
@@ -1611,7 +2226,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="36" customFormat="1">
+    <row r="18" s="36" customFormat="1" spans="1:5">
       <c r="A18" s="19" t="s">
         <v>14</v>
       </c>
@@ -1624,7 +2239,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="36" customFormat="1">
+    <row r="19" s="36" customFormat="1" spans="1:5">
       <c r="A19" s="19" t="s">
         <v>14</v>
       </c>
@@ -1637,7 +2252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="36" customFormat="1">
+    <row r="20" s="36" customFormat="1" spans="1:5">
       <c r="A20" s="19" t="s">
         <v>14</v>
       </c>
@@ -1650,7 +2265,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="28" customFormat="1">
+    <row r="21" s="28" customFormat="1" spans="1:5">
       <c r="A21" s="38" t="s">
         <v>7</v>
       </c>
@@ -1663,17 +2278,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="28" customFormat="1">
+    <row r="22" s="28" customFormat="1" spans="1:3">
       <c r="A22" s="38"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
     </row>
-    <row r="23" spans="1:7" s="28" customFormat="1">
+    <row r="23" s="28" customFormat="1" spans="1:3">
       <c r="A23" s="38"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
     </row>
-    <row r="24" spans="1:7" s="28" customFormat="1">
+    <row r="24" s="28" customFormat="1" spans="1:5">
       <c r="A24" s="38"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -1684,7 +2299,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="36" customFormat="1">
+    <row r="25" s="36" customFormat="1" spans="1:7">
       <c r="A25" s="19" t="s">
         <v>14</v>
       </c>
@@ -1703,7 +2318,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:5">
       <c r="A26" s="19" t="s">
         <v>52</v>
       </c>
@@ -1716,7 +2331,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:5">
       <c r="A27" s="19" t="s">
         <v>52</v>
       </c>
@@ -1729,17 +2344,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:3">
       <c r="A28" s="19"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:3">
       <c r="A29" s="19"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:4">
       <c r="A30" s="19" t="s">
         <v>14</v>
       </c>
@@ -1749,7 +2364,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="36" customFormat="1">
+    <row r="31" s="36" customFormat="1" spans="1:5">
       <c r="A31" s="19" t="s">
         <v>14</v>
       </c>
@@ -1762,7 +2377,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:4">
       <c r="A32" s="19" t="s">
         <v>19</v>
       </c>
@@ -1772,7 +2387,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:4">
       <c r="A33" s="19" t="s">
         <v>52</v>
       </c>
@@ -1782,7 +2397,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:4">
       <c r="A34" s="19" t="s">
         <v>52</v>
       </c>
@@ -1792,7 +2407,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="36" customFormat="1">
+    <row r="35" s="36" customFormat="1" spans="1:5">
       <c r="A35" s="19" t="s">
         <v>14</v>
       </c>
@@ -1805,7 +2420,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="36" customFormat="1">
+    <row r="36" s="36" customFormat="1" spans="1:5">
       <c r="A36" s="19" t="s">
         <v>14</v>
       </c>
@@ -1831,7 +2446,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:4">
       <c r="A38" s="19" t="s">
         <v>19</v>
       </c>
@@ -1841,7 +2456,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="36" customFormat="1">
+    <row r="39" s="36" customFormat="1" spans="1:4">
       <c r="A39" s="19" t="s">
         <v>14</v>
       </c>
@@ -1851,7 +2466,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="36" customFormat="1">
+    <row r="40" s="36" customFormat="1" spans="1:5">
       <c r="A40" s="37" t="s">
         <v>14</v>
       </c>
@@ -1878,28 +2493,29 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A2:F31"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="5" max="5" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1910,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>76</v>
       </c>
@@ -1918,7 +2534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>77</v>
       </c>
@@ -1937,32 +2553,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="5:5">
       <c r="E7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="5:5">
       <c r="E8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -1973,7 +2589,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="2:3">
       <c r="B20" t="s">
         <v>89</v>
       </c>
@@ -1981,17 +2597,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -2008,50 +2624,51 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="2:2">
       <c r="B26" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="2:2">
       <c r="B27" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="F31" s="44" t="s">
-        <v>206</v>
+      <c r="A31" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13" style="11" customWidth="1"/>
     <col min="2" max="2" width="9" style="12"/>
@@ -2085,16 +2702,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="3:3">
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:3">
       <c r="A3" s="16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:7" s="8" customFormat="1">
+    <row r="4" s="8" customFormat="1" spans="1:5">
       <c r="A4" s="17" t="s">
         <v>14</v>
       </c>
@@ -2102,7 +2719,7 @@
         <v>79</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>22</v>
@@ -2111,18 +2728,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="8" customFormat="1">
+    <row r="5" s="8" customFormat="1" spans="1:6">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>49</v>
@@ -2131,30 +2748,30 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="8" customFormat="1">
+    <row r="6" s="8" customFormat="1" spans="1:5">
       <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>73</v>
       </c>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:7" s="8" customFormat="1">
+    <row r="7" s="8" customFormat="1" spans="1:5">
       <c r="A7" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>38</v>
@@ -2163,15 +2780,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="8" customFormat="1">
+    <row r="8" s="8" customFormat="1" spans="1:5">
       <c r="A8" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>101</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>15</v>
@@ -2180,15 +2797,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="8" customFormat="1">
+    <row r="9" s="8" customFormat="1" spans="1:5">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>42</v>
@@ -2197,32 +2814,32 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="8" customFormat="1">
+    <row r="10" s="8" customFormat="1" spans="1:5">
       <c r="A10" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="8" customFormat="1">
+    <row r="11" s="8" customFormat="1" spans="1:5">
       <c r="A11" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>63</v>
@@ -2231,473 +2848,475 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="8" customFormat="1">
+    <row r="12" s="8" customFormat="1" spans="1:5">
       <c r="A12" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>71</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:5">
       <c r="A14" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:5">
       <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="21"/>
       <c r="B16" s="22"/>
       <c r="C16" s="21" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" s="21"/>
       <c r="B17" s="22"/>
       <c r="C17" s="19"/>
       <c r="D17" s="24" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" s="21"/>
       <c r="B18" s="22"/>
       <c r="C18" s="19"/>
       <c r="D18" s="24" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="8" customFormat="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" s="8" customFormat="1" spans="1:4">
       <c r="A23" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:4">
       <c r="A24" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
       <c r="D26" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:1">
       <c r="A28" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="16" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="16" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="16" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="16"/>
       <c r="D32" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="16"/>
       <c r="C33" s="28" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
       <c r="C34" s="28" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
       <c r="C35" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" s="9" customFormat="1">
+    <row r="36" s="9" customFormat="1" spans="1:5">
       <c r="A36" s="29"/>
       <c r="B36" s="30"/>
       <c r="C36" s="31" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="9" customFormat="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" s="9" customFormat="1" spans="1:6">
       <c r="A37" s="29"/>
       <c r="B37" s="32" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E37" s="31"/>
       <c r="F37" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="9" customFormat="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" s="9" customFormat="1" spans="1:5">
       <c r="A38" s="29"/>
       <c r="B38" s="32" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E38" s="31"/>
     </row>
-    <row r="39" spans="1:6" s="9" customFormat="1">
+    <row r="39" s="9" customFormat="1" spans="1:5">
       <c r="A39" s="29"/>
       <c r="B39" s="32"/>
       <c r="C39" s="31"/>
       <c r="E39" s="31"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="5:5">
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="3:3">
       <c r="C41" s="31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="16" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>173</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="16"/>
-      <c r="C44" s="33" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="C44" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="16" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="10" customFormat="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" s="10" customFormat="1" spans="1:6">
       <c r="A54" s="11"/>
-      <c r="B54" s="34"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="31" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="35"/>
-    </row>
-    <row r="57" spans="1:6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="34"/>
+    </row>
+    <row r="57" spans="3:3">
       <c r="C57" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="16" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61" s="16" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B3:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="40.5">
+    <row r="3" ht="40.5" spans="3:3">
       <c r="C3" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
       <c r="C5" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
       <c r="C8" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="3:3">
       <c r="C9" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A5:B15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="59.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:2" ht="27">
+    <row r="5" ht="27" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="68.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" ht="68.25" spans="2:2">
       <c r="B7" s="5" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2705,68 +3324,69 @@
       <c r="B15" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="121" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="94.5">
+    <row r="1" ht="94.5" spans="1:3">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>